--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>TPC 02-01 (Algo) [LO 2-1]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>Problem 02-01 (Algo) [LO 2-1]</t>
   </si>
   <si>
     <t>02-01</t>
@@ -22,25 +22,151 @@
     <t>Static versus Dynamic Forecasting</t>
   </si>
   <si>
+    <t>Knowledge Application</t>
+  </si>
+  <si>
+    <t>Critical Thinking</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>1 Easy</t>
+  </si>
+  <si>
+    <t>5 min.</t>
+  </si>
+  <si>
+    <t>Problem 02-01 (Static) [LO 2-1]</t>
+  </si>
+  <si>
+    <t>Problem 02-02 (Algo) [LO 2-1]</t>
+  </si>
+  <si>
+    <t>Problem 02-02 (Static) [LO 2-1]</t>
+  </si>
+  <si>
+    <t>Problem 02-03 (Algo) [LO 2-1]</t>
+  </si>
+  <si>
+    <t>Problem 02-03 (Static) [LO 2-1]</t>
+  </si>
+  <si>
+    <t>Problem 02-04 (Algo) [LO 2-1, 2-2]</t>
+  </si>
+  <si>
+    <t>02-01, 02-02</t>
+  </si>
+  <si>
+    <t>Static versus Dynamic Forecasting, Behavioral Responses to Rate Changes</t>
+  </si>
+  <si>
     <t>Analytical Thinking</t>
   </si>
   <si>
-    <t>Critical Thinking</t>
+    <t>2 Medium</t>
+  </si>
+  <si>
+    <t>Problem 02-04 (Static) [LO 2-1, 2-2]</t>
+  </si>
+  <si>
+    <t>Problem 02-05 (Algo) [LO 2-2]</t>
+  </si>
+  <si>
+    <t>02-02</t>
+  </si>
+  <si>
+    <t>Behavioral Responses to Rate Changes</t>
+  </si>
+  <si>
+    <t>Problem 02-05 (Static) [LO 2-2]</t>
+  </si>
+  <si>
+    <t>Problem 02-06 (Algo) [LO 2-2]</t>
+  </si>
+  <si>
+    <t>10 min.</t>
+  </si>
+  <si>
+    <t>Problem 02-06 (Static) [LO 2-2]</t>
+  </si>
+  <si>
+    <t>Problem 02-07 (Algo) [LO 2-2]</t>
+  </si>
+  <si>
+    <t>Problem 02-07 (Static) [LO 2-2]</t>
+  </si>
+  <si>
+    <t>Problem 02-08 (Algo) [LO 2-6, 2-7]</t>
+  </si>
+  <si>
+    <t>02-06, 02-07</t>
+  </si>
+  <si>
+    <t>Regressive Taxes, Marginal and Average Tax Rates</t>
   </si>
   <si>
     <t>Decision Making</t>
   </si>
   <si>
-    <t>Analyze</t>
-  </si>
-  <si>
-    <t>3 Hard</t>
-  </si>
-  <si>
-    <t>20 min.</t>
-  </si>
-  <si>
-    <t>TPC 02-01 (Static) [LO 2-1]</t>
+    <t>Problem 02-08 (Static) [LO 2-6, 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-09 (Algo) [LO 2-6, 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-09 (Static) [LO 2-6, 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-10 (Algo) [LO 2-7]</t>
+  </si>
+  <si>
+    <t>02-07</t>
+  </si>
+  <si>
+    <t>Marginal and Average Tax Rates</t>
+  </si>
+  <si>
+    <t>Problem 02-10 (Static) [LO 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-11 (Algo) [LO 2-5]</t>
+  </si>
+  <si>
+    <t>02-05</t>
+  </si>
+  <si>
+    <t>Annual versus Lifetime Horizontal Equity</t>
+  </si>
+  <si>
+    <t>Problem 02-11 (Static) [LO 2-5]</t>
+  </si>
+  <si>
+    <t>Problem 02-12 (Algo) [LO 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-12 (Static) [LO 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-13 (Algo) [LO 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-13 (Static) [LO 2-7]</t>
+  </si>
+  <si>
+    <t>Problem 02-14 (Algo) [LO 2-5, 2-6]</t>
+  </si>
+  <si>
+    <t>02-06, 02-05</t>
+  </si>
+  <si>
+    <t>Income Tax Rate Structures, Annual versus Lifetime Horizontal Equity</t>
+  </si>
+  <si>
+    <t>Problem 02-14 (Static) [LO 2-5, 2-6]</t>
   </si>
 </sst>
 </file>
@@ -84,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -142,6 +268,682 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
